--- a/esercizio 11.xlsx
+++ b/esercizio 11.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0E4CAE-0966-4682-AD8B-7EAF373D2439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E108243-BC1A-4720-B1A7-FDF942029C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,8 +73,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="171" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -157,9 +157,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -616,7 +616,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ref="H4:H9" si="0">D5-C5+F5-E5</f>
+        <f t="shared" ref="H5:H9" si="0">D5-C5+F5-E5</f>
         <v>0.33333333333333337</v>
       </c>
     </row>
@@ -814,8 +814,8 @@
         <v>19</v>
       </c>
       <c r="H15" s="10">
-        <f>IF(H12&gt;36,F14*36+(H12-36)*F15,H12*F14)</f>
-        <v>731.33333333333326</v>
+        <f>IF(H12&gt;36,(H12-36)*F15)</f>
+        <v>101.33333333333324</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.3">
@@ -824,7 +824,7 @@
       </c>
       <c r="H18" s="12">
         <f>SUM(H14:H15)</f>
-        <v>1454.6666666666665</v>
+        <v>824.66666666666652</v>
       </c>
     </row>
   </sheetData>
